--- a/biology/Médecine/1518_en_santé_et_médecine/1518_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1518_en_santé_et_médecine/1518_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1518_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1518_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1518 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1518_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1518_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Été : une « épidémie chorémaniaque gagne Strasbourg », en Alsace[1],[2].
-Peste à Avignon, en Provence[3].
-Première épidémie connue de variole au Nouveau Monde, cette maladie, qui existe déjà en Espagne, ayant peut-être été « amenée [à Saint-Domingue] par un navire portugais chargé d'esclaves noirs infectés[4] ».
-1518-1519 : peste à Loches, en Touraine[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Été : une « épidémie chorémaniaque gagne Strasbourg », en Alsace,.
+Peste à Avignon, en Provence.
+Première épidémie connue de variole au Nouveau Monde, cette maladie, qui existe déjà en Espagne, ayant peut-être été « amenée [à Saint-Domingue] par un navire portugais chargé d'esclaves noirs infectés ».
+1518-1519 : peste à Loches, en Touraine.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1518_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1518_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Inauguration de l'hôpital des Incurables de Naples[6].
-Charte de fondation du Collège des médecins de Londres[7].
-Fondation à Aix-en-Provence, par Jacques de la Roque, de l'hôpital Saint-Jacques, futur Hôtel-Dieu, origine de l'actuel centre hospitalier du pays d'Aix[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Inauguration de l'hôpital des Incurables de Naples.
+Charte de fondation du Collège des médecins de Londres.
+Fondation à Aix-en-Provence, par Jacques de la Roque, de l'hôpital Saint-Jacques, futur Hôtel-Dieu, origine de l'actuel centre hospitalier du pays d'Aix.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1518_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1518_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Marcel-Virgile Adriani (it) (1464-1521), fait paraître à Florence son édition latine de la Matière médicale de Dioscoride[9].
-Sous le titre d'Additiones ad Practicam Antonii Guainerii, Jean Faucon († 1532) donne à Pavie ses commentaires de l'Opus praeclarum ad praxim, d'Antoine Guainier (c.1390-c.1458[10]).
-Parution du Lexicon artis medicamentariae d'Antonio de Nebrija († 1522), « qui contient la correspondance en langue vulgaire des noms des plantes en grec et latin[11] ».
-Le médecin, géographe et astrologue Laurent Fries (1485-1532) fait paraître en allmand à Strasbourg « son œuvre maîtresse sur la médecine interne », le Spiegel der Artzny (« Miroir de la médecine[12],[13] »).
-Sous le titre de De epidimiae morbo, parution à Augsbourg de la traduction latine, par Girolamo Ricci, du Consilio contro la pestilentia (1481) de Marsile Ficin (1433-1499[14],[15]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marcel-Virgile Adriani (it) (1464-1521), fait paraître à Florence son édition latine de la Matière médicale de Dioscoride.
+Sous le titre d'Additiones ad Practicam Antonii Guainerii, Jean Faucon († 1532) donne à Pavie ses commentaires de l'Opus praeclarum ad praxim, d'Antoine Guainier (c.1390-c.1458).
+Parution du Lexicon artis medicamentariae d'Antonio de Nebrija († 1522), « qui contient la correspondance en langue vulgaire des noms des plantes en grec et latin ».
+Le médecin, géographe et astrologue Laurent Fries (1485-1532) fait paraître en allmand à Strasbourg « son œuvre maîtresse sur la médecine interne », le Spiegel der Artzny (« Miroir de la médecine, »).
+Sous le titre de De epidimiae morbo, parution à Augsbourg de la traduction latine, par Girolamo Ricci, du Consilio contro la pestilentia (1481) de Marsile Ficin (1433-1499,).</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1518_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1518_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,11 +628,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>George Etheridge (mort à une date inconnue), auteur de commentaires sur Paul d'Égine intitulés Hypnomnemata quaedam in aliquot libros Pauli Aeginetae, seu Observationes medicamentorum et imprimés à Londres en 1588[16].
-Alfonso Ferri (it) (mort en 1595), médecin italien[17].
-Li Shizhen (mort en 1593), médecin, pharmacologue et naturaliste chinois[18].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>George Etheridge (mort à une date inconnue), auteur de commentaires sur Paul d'Égine intitulés Hypnomnemata quaedam in aliquot libros Pauli Aeginetae, seu Observationes medicamentorum et imprimés à Londres en 1588.
+Alfonso Ferri (it) (mort en 1595), médecin italien.
+Li Shizhen (mort en 1593), médecin, pharmacologue et naturaliste chinois.</t>
         </is>
       </c>
     </row>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1518_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1518_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,9 +662,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1517) ou 1518 : Antonio Cittadini (né en 1465 ou 1466), professeur de médecine à Ferrare[19],[20].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1517) ou 1518 : Antonio Cittadini (né en 1465 ou 1466), professeur de médecine à Ferrare,.</t>
         </is>
       </c>
     </row>
